--- a/SQL Lab Assignment 1.xlsx
+++ b/SQL Lab Assignment 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cristinaortiz/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF0E2335-63C1-494F-A214-77D89365410F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A301D3D2-15B9-E549-97CB-D3731514AC08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28820" yWindow="500" windowWidth="19400" windowHeight="19640" activeTab="7" xr2:uid="{9F6472A1-0288-4D4E-BC92-6ACE3EEEBC98}"/>
   </bookViews>
@@ -1207,6 +1207,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
@@ -1452,13 +1455,14 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1472,22 +1476,22 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>66</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>67</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>68</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1713,10 +1717,14 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
@@ -1729,10 +1737,10 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1837,11 +1845,12 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1856,13 +1865,13 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>99</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2089,13 +2098,15 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="26.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -2109,13 +2120,13 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>107</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2272,14 +2283,16 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="26.83203125" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="39.1640625" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -2293,19 +2306,19 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
       <c r="B2" t="s">
         <v>107</v>
       </c>
       <c r="C2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" t="s">
         <v>118</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>119</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2547,13 +2560,14 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.1640625" customWidth="1"/>
     <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -2567,16 +2581,16 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>149</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>150</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>151</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>152</v>
       </c>
     </row>
